--- a/Planos/Tubos y Juntas.xlsx
+++ b/Planos/Tubos y Juntas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\.shortcut-targets-by-id\1kf0HV9hHczanvIPwNKCnSZoPKQxLZB3W\VANDV Ingeniería\N Tubos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF793EB0-A07D-4E4D-B605-ECC058C2B34D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D68BE77F-2AA3-4523-B9BB-46AAF8B02FDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30225" yWindow="2205" windowWidth="21600" windowHeight="11325" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EB1-EB2" sheetId="3" r:id="rId1"/>
@@ -3078,9 +3078,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B438687-BE92-4591-9646-F8B1BAAD7E08}">
-  <dimension ref="A1:B3606"/>
+  <dimension ref="A1:B3607"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A3599" workbookViewId="0">
+      <selection activeCell="C3612" sqref="C3612"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -31930,6 +31932,14 @@
       </c>
       <c r="B3606">
         <v>36040</v>
+      </c>
+    </row>
+    <row r="3607" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3607" s="5">
+        <v>42780.843000000001</v>
+      </c>
+      <c r="B3607">
+        <v>36050</v>
       </c>
     </row>
   </sheetData>
@@ -31941,8 +31951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A167D217-FB46-4A8C-87AF-00F8CCD26E3D}">
   <dimension ref="A1:A6315"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
